--- a/integrations/templates/ImpervaMX_template.xlsx
+++ b/integrations/templates/ImpervaMX_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigi.labigalini/git/jsonar/sonarFinder-deps/studio/applications/finder/src/main/resources/templates/import_assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/briananderson/Dev/GSA/github.com/imperva/sonar-toolbox/integrations/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13157C31-5CFC-D94F-8D44-26115B48853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A05663D-D687-5F40-92C1-5AE94BDE815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27160" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12300" yWindow="1800" windowWidth="48060" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>asset_id</t>
   </si>
@@ -63,44 +63,41 @@
     <t>Service Name</t>
   </si>
   <si>
-    <t>mx_asset_01</t>
-  </si>
-  <si>
     <t>OPENAPI</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>mypwd</t>
-  </si>
-  <si>
-    <t>https://mxhostname.com/</t>
-  </si>
-  <si>
-    <t>somebody@company.com</t>
-  </si>
-  <si>
     <t>MX</t>
   </si>
   <si>
-    <t>mx_asset_02</t>
-  </si>
-  <si>
     <t>basic</t>
+  </si>
+  <si>
+    <t>mx_asset_dev</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>8083</t>
+  </si>
+  <si>
+    <t>your@email.com</t>
+  </si>
+  <si>
+    <t>https://1.2.3.4:8083</t>
+  </si>
+  <si>
+    <t>yourpassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,12 +108,25 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,26 +152,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -549,42 +568,41 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9"/>
+        <v>14</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -599,43 +617,16 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="9"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -649,7 +640,9 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="9"/>
+    </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1647,6 +1640,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{B9FB00C4-E3CB-964C-B68B-9D12EC589410}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{10F7C8F6-5971-A345-A7D9-B394B795C389}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
